--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/91.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/91.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02908507056513369</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.922058245166929</v>
+        <v>-1.922546191094532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04475656084478463</v>
+        <v>0.04347845731828848</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01109773595489072</v>
+        <v>0.00978185596948335</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.02970376318984408</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.786887779106111</v>
+        <v>-1.78849563963852</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.005135123243083268</v>
+        <v>-0.006528130165434377</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01313451669785382</v>
+        <v>0.01183752494190205</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04049402171569437</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.75771018665456</v>
+        <v>-1.75991223940526</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04898886998164173</v>
+        <v>-0.04995216968387775</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009207338990208598</v>
+        <v>0.007891459004801224</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06162370897505243</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.782174378847376</v>
+        <v>-1.784752622168067</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08469549374834784</v>
+        <v>-0.08544315283096567</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03286169834511533</v>
+        <v>0.03129082726205725</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.08723439058529357</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.748421899819765</v>
+        <v>-1.75067904323971</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1437857455810969</v>
+        <v>-0.1441698062466943</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03871704947635389</v>
+        <v>0.03676054370857714</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1090702777368369</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.606333619720831</v>
+        <v>-1.608944917443069</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1990904814271179</v>
+        <v>-0.198509668371358</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03444988363850773</v>
+        <v>0.0327798493508077</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.120527662512271</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.465898059699262</v>
+        <v>-1.468181961444269</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2937992119557803</v>
+        <v>-0.2921874163755684</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06157338113676118</v>
+        <v>0.05976483316638669</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1191362149419444</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.245487375133966</v>
+        <v>-1.247649290397073</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3787128214925885</v>
+        <v>-0.3757489434871793</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08624770488227076</v>
+        <v>0.08430851332482832</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1060996999021532</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9474712518120609</v>
+        <v>-0.9482991858698652</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4218739998177747</v>
+        <v>-0.4180412632574075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1276554259063279</v>
+        <v>0.1255194819587229</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08447859139039039</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.745868521727187</v>
+        <v>-0.7456686212987818</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.524832164561174</v>
+        <v>-0.5198220616980739</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1269187849575592</v>
+        <v>0.1247954331629246</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.05507561434168889</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.520247046860825</v>
+        <v>-0.5189059825694768</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6476371364050536</v>
+        <v>-0.6416007730748655</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1397832432359498</v>
+        <v>0.1376866497663772</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01305872066003444</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.273047343860552</v>
+        <v>-0.2710200072323167</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7829838926074572</v>
+        <v>-0.7769349371242986</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2034743529602608</v>
+        <v>0.2014092398731143</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.04860019818582065</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04779891152593841</v>
+        <v>-0.0452537226067952</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8980801058047667</v>
+        <v>-0.8916990322870137</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2674424900499207</v>
+        <v>0.2652514554330702</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1342311535130855</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3018269377547342</v>
+        <v>0.3044083291136674</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.037956889038274</v>
+        <v>-1.031861499991037</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3026328355448402</v>
+        <v>0.300825861593587</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2408114748737673</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5679007040385238</v>
+        <v>0.5706851438641047</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.183331721062484</v>
+        <v>-1.178162642268132</v>
       </c>
       <c r="G16" t="n">
-        <v>0.327119851014915</v>
+        <v>0.3259456327504247</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3595079027966812</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8186860225971199</v>
+        <v>0.8215113869198546</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.316267079971055</v>
+        <v>-1.311765385284135</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3570388064725985</v>
+        <v>0.3563289238488919</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4826370353560374</v>
       </c>
       <c r="E18" t="n">
-        <v>1.05846422544046</v>
+        <v>1.061717722964189</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.515139673890033</v>
+        <v>-1.510958292094297</v>
       </c>
       <c r="G18" t="n">
-        <v>0.40688641802507</v>
+        <v>0.4064441186519845</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6085283095813264</v>
       </c>
       <c r="E19" t="n">
-        <v>1.329220698610119</v>
+        <v>1.331743851261564</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.719499298465865</v>
+        <v>-1.715614619274495</v>
       </c>
       <c r="G19" t="n">
-        <v>0.442419899688433</v>
+        <v>0.4421365762465989</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7380011293420979</v>
       </c>
       <c r="E20" t="n">
-        <v>1.623666159555354</v>
+        <v>1.626083852925672</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.921326326275524</v>
+        <v>-1.918062597627507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5077149348973494</v>
+        <v>0.5073481884420864</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8715443393550092</v>
       </c>
       <c r="E21" t="n">
-        <v>1.824608588618842</v>
+        <v>1.826061408267803</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.149235637934697</v>
+        <v>-2.146384302296461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5818701237400674</v>
+        <v>0.5815033772848044</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.004239917319316</v>
       </c>
       <c r="E22" t="n">
-        <v>1.958861401531942</v>
+        <v>1.959895532094636</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.318011412235284</v>
+        <v>-2.315338727767316</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6439510119032879</v>
+        <v>0.6435512110464775</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.124664500304098</v>
       </c>
       <c r="E23" t="n">
-        <v>2.156553481109944</v>
+        <v>2.156531444842246</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.470105731888327</v>
+        <v>-2.467592810361171</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7013728034674582</v>
+        <v>0.7009210599796449</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.222941468692958</v>
       </c>
       <c r="E24" t="n">
-        <v>2.26293198940393</v>
+        <v>2.261841194152868</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.710895242017103</v>
+        <v>-2.708048628436231</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7485792109343872</v>
+        <v>0.7483431080661921</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.29434919449568</v>
       </c>
       <c r="E25" t="n">
-        <v>2.407469443255608</v>
+        <v>2.405089526344201</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.870921831031941</v>
+        <v>-2.867893418242558</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7909455096033164</v>
+        <v>0.7901254456411189</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.338851335795268</v>
       </c>
       <c r="E26" t="n">
-        <v>2.556281933040739</v>
+        <v>2.553044175708223</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.042075948224814</v>
+        <v>-3.039026286177294</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8213996315622422</v>
+        <v>0.820733821473932</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.357381266567437</v>
       </c>
       <c r="E27" t="n">
-        <v>2.608139567011111</v>
+        <v>2.604234425571164</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.162666275165023</v>
+        <v>-3.158528965904684</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8630245672250388</v>
+        <v>0.8623005184292406</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.350579770231991</v>
       </c>
       <c r="E28" t="n">
-        <v>2.622947938904308</v>
+        <v>2.619071129808545</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.250214792710889</v>
+        <v>-3.245481717213138</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8885472872769296</v>
+        <v>0.8873919572418948</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.32044368036591</v>
       </c>
       <c r="E29" t="n">
-        <v>2.63142088383427</v>
+        <v>2.627101775365421</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.341906915593579</v>
+        <v>-3.33603975931893</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8888510729673406</v>
+        <v>0.887560377287874</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.27112292310902</v>
       </c>
       <c r="E30" t="n">
-        <v>2.628848936590065</v>
+        <v>2.624011975830308</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.37713661156653</v>
+        <v>-3.370200696308519</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8989594237643336</v>
+        <v>0.8978953868383344</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.208282102191282</v>
       </c>
       <c r="E31" t="n">
-        <v>2.618828730863864</v>
+        <v>2.613965011779045</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.45609806779614</v>
+        <v>-3.447972981091986</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8635077910952782</v>
+        <v>0.8622265395305394</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.136930794959789</v>
       </c>
       <c r="E32" t="n">
-        <v>2.582257970599564</v>
+        <v>2.577572115675452</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.50000139613702</v>
+        <v>-3.490529736074593</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8600984656785409</v>
+        <v>0.8586613862207934</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.060702047702993</v>
       </c>
       <c r="E33" t="n">
-        <v>2.514576722402756</v>
+        <v>2.510144284557173</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.538498755805792</v>
+        <v>-3.52804018575431</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8728637607522894</v>
+        <v>0.8709041069462702</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9824690759403407</v>
       </c>
       <c r="E34" t="n">
-        <v>2.456816516727506</v>
+        <v>2.452475371990959</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.558230659510417</v>
+        <v>-3.54773037795222</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8677906971243373</v>
+        <v>0.8655319796852708</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9038888551340407</v>
       </c>
       <c r="E35" t="n">
-        <v>2.397494884083926</v>
+        <v>2.3935913166631</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.529547309062955</v>
+        <v>-3.518572460739686</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8199373677985539</v>
+        <v>0.8174803239502035</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8274194713584258</v>
       </c>
       <c r="E36" t="n">
-        <v>2.312244434455159</v>
+        <v>2.308073283783712</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.510836156758493</v>
+        <v>-3.499796773651251</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8117099698515151</v>
+        <v>0.8090719138042152</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.755407931506485</v>
       </c>
       <c r="E37" t="n">
-        <v>2.162807059078872</v>
+        <v>2.159337920935525</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.45631606944444</v>
+        <v>-3.445260946145985</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7662035030355909</v>
+        <v>0.7636173896192939</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6891740460537741</v>
       </c>
       <c r="E38" t="n">
-        <v>2.078562407668616</v>
+        <v>2.074872906848288</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.414465262037737</v>
+        <v>-3.403518746058651</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7579399026487623</v>
+        <v>0.7557158136303644</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6290290529648038</v>
       </c>
       <c r="E39" t="n">
-        <v>1.995074859455707</v>
+        <v>1.991698588440517</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.305194493608361</v>
+        <v>-3.294565142482218</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7039715090367257</v>
+        <v>0.7018749155671532</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5740590478722909</v>
       </c>
       <c r="E40" t="n">
-        <v>1.870585687152035</v>
+        <v>1.867270802882576</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.223461976715702</v>
+        <v>-3.213086829677648</v>
       </c>
       <c r="G40" t="n">
-        <v>0.670460641944234</v>
+        <v>0.6684222871821497</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5241032559358065</v>
       </c>
       <c r="E41" t="n">
-        <v>1.762189286344542</v>
+        <v>1.759510305800088</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.165988242520529</v>
+        <v>-3.155712258687117</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6247054801071443</v>
+        <v>0.6229598929016219</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4792329154043752</v>
       </c>
       <c r="E42" t="n">
-        <v>1.628688854571424</v>
+        <v>1.626737070861011</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.105452254124865</v>
+        <v>-3.095467463828894</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5783805233481438</v>
+        <v>0.5767907640356301</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4380788256831192</v>
       </c>
       <c r="E43" t="n">
-        <v>1.50688338486957</v>
+        <v>1.505270015270237</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.001899897163174</v>
+        <v>-2.992523465257586</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5242641719387049</v>
+        <v>0.5228003341558952</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4000699702662067</v>
       </c>
       <c r="E44" t="n">
-        <v>1.316746597073811</v>
+        <v>1.315743946893543</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.948338387493994</v>
+        <v>-2.939226390800784</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4789292732070025</v>
+        <v>0.477649595661385</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3640584522924046</v>
       </c>
       <c r="E45" t="n">
-        <v>1.135839857405359</v>
+        <v>1.135240156120144</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.835581166710937</v>
+        <v>-2.826948458840163</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4330954104138477</v>
+        <v>0.4320156332966354</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3283437026542341</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9642780692600695</v>
+        <v>0.9646479637535752</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.678031296783466</v>
+        <v>-2.670137590890143</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3764291480279017</v>
+        <v>0.375336778757719</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2919894325719958</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8902283396984787</v>
+        <v>0.890884705672061</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.633813951627887</v>
+        <v>-2.625960383222157</v>
       </c>
       <c r="G47" t="n">
-        <v>0.340845297752657</v>
+        <v>0.3398631098209654</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2542269302697895</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7465912247841844</v>
+        <v>0.7479464552476243</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.557748690581471</v>
+        <v>-2.550167427483726</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3491765809617016</v>
+        <v>0.3483580910186252</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2153322017663373</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6120472183336442</v>
+        <v>0.6139376152983264</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.50031430686433</v>
+        <v>-2.492796791540998</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3054487557528471</v>
+        <v>0.3047247069570488</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.176833128391176</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4806339359153711</v>
+        <v>0.4831114420122984</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.440917908312488</v>
+        <v>-2.433427151314218</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2598069232924911</v>
+        <v>0.2594197145886512</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1395532074911708</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3677956531475674</v>
+        <v>0.3705848150305122</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.412684727333717</v>
+        <v>-2.405284476434922</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2430420456315175</v>
+        <v>0.242662707023284</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1041247553770785</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2120228508080448</v>
+        <v>0.2151567228785545</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.416373441144485</v>
+        <v>-2.408824445438727</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2281644168969834</v>
+        <v>0.2277598939828091</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.0706885381090169</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1559342534396161</v>
+        <v>0.1597591199043768</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.328808396397847</v>
+        <v>-2.321841787766969</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1913481096497603</v>
+        <v>0.1910096955386806</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03863656326652434</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05320274744968412</v>
+        <v>0.05709529673666072</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.287113416884152</v>
+        <v>-2.280433279733352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1683784486126194</v>
+        <v>0.168057348711874</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.007487304721658121</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.03452993033337361</v>
+        <v>-0.03045794286656874</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.24686181290469</v>
+        <v>-2.240619253069612</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1516182930090096</v>
+        <v>0.1514215406188471</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.0235897655001194</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.07395910932195585</v>
+        <v>-0.0697312939621422</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.221627138351997</v>
+        <v>-2.215811924708352</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1230640121294938</v>
+        <v>0.1228940180643934</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.05568776881330589</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1443114679676114</v>
+        <v>-0.1397877370129932</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.196650602935198</v>
+        <v>-2.191088019360521</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1219401624768852</v>
+        <v>0.1215844341554712</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.08903600553183293</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2213628519935227</v>
+        <v>-0.2169052298419991</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.180117893094616</v>
+        <v>-2.174763080043951</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1080982383241669</v>
+        <v>0.1077204737350548</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.124353247597432</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2960689475286959</v>
+        <v>-0.2918663164748231</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.174391611531324</v>
+        <v>-2.169197348431032</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08765172993847098</v>
+        <v>0.08726452123463101</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1627943191075509</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3367652119099252</v>
+        <v>-0.3324287892307418</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.185490807365176</v>
+        <v>-2.180175344792544</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06088238674251018</v>
+        <v>0.06062896966398077</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2049358699340518</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3637360295534124</v>
+        <v>-0.3595271024230544</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.134740495846639</v>
+        <v>-2.130076677190225</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02309018764008066</v>
+        <v>0.02308231754447416</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2516396725799222</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4054837387076706</v>
+        <v>-0.4011362978946381</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.117205135825789</v>
+        <v>-2.112834084725936</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05845997131482842</v>
+        <v>0.05839228849261249</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3029691715437752</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4160926275852372</v>
+        <v>-0.4118081475370567</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.142852990397822</v>
+        <v>-2.138784937978821</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02734318730583512</v>
+        <v>0.02738096376474634</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.358464032552522</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4034926045192253</v>
+        <v>-0.3988177677289622</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.113681694022757</v>
+        <v>-2.110280238701626</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01021785926608364</v>
+        <v>0.01036739108260721</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4178182562327585</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4573130403338597</v>
+        <v>-0.4527893093792415</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.123731806112262</v>
+        <v>-2.120358683135315</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009925091709521713</v>
+        <v>0.009994348550858942</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4795552876183454</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4768135632276539</v>
+        <v>-0.4722630739479736</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.112430348821323</v>
+        <v>-2.109213053737384</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02294987165796445</v>
+        <v>-0.02299551821248217</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5418873602107448</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.4991063960426355</v>
+        <v>-0.4949242272373396</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.14395165574449</v>
+        <v>-2.140533673222586</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02292783539026624</v>
+        <v>-0.023052182900849</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6030472430420467</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4449947666905605</v>
+        <v>-0.4406709361643475</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.176289878591613</v>
+        <v>-2.172996243580291</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04485864380734873</v>
+        <v>-0.04492790064868596</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6611186709692525</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4087970489580086</v>
+        <v>-0.4047675600074788</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.201906252781221</v>
+        <v>-2.198456789876891</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07422039649609176</v>
+        <v>-0.07423141462994086</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7146943918358475</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3303510839906248</v>
+        <v>-0.3266080665201718</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.211063109019388</v>
+        <v>-2.207608137048133</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0823077067413347</v>
+        <v>-0.08229983664572818</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7617381972544643</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2764645393728958</v>
+        <v>-0.2726758753479251</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.2365874030904</v>
+        <v>-2.233088358583748</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08747048945920094</v>
+        <v>-0.08731151352794958</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7996138119051774</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2163448790348161</v>
+        <v>-0.2124192753462922</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.288960528322998</v>
+        <v>-2.285333988267521</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07212222900739794</v>
+        <v>-0.07183260948907862</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8267249330963178</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.08870294643117939</v>
+        <v>-0.08481826723980929</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.298581720201949</v>
+        <v>-2.294996104643626</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08763418744781622</v>
+        <v>-0.08734456792949689</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8418801206244956</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.01517579121786036</v>
+        <v>-0.01137138700167659</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.342716429353659</v>
+        <v>-2.339169377263808</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07573932494814692</v>
+        <v>-0.07538831868409687</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8446445408349138</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08083780116236029</v>
+        <v>0.08489877049531608</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.373355498559338</v>
+        <v>-2.369725810465618</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08075887192597481</v>
+        <v>-0.08030398039991891</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8354177507448439</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2175586760576593</v>
+        <v>0.2216212194097364</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.397402575685009</v>
+        <v>-2.393890152015826</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09122609908262438</v>
+        <v>-0.09058704731937631</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8152883516763865</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3615216129300629</v>
+        <v>0.3656329508749002</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.33669029714776</v>
+        <v>-2.333706743903334</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.09890731239457175</v>
+        <v>-0.09791725436727361</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7853717451812752</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5451954782137614</v>
+        <v>0.5494091274014834</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.33163218670146</v>
+        <v>-2.328954780176127</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0745588106071714</v>
+        <v>-0.07375606085530806</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7466928506396362</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6655811826682019</v>
+        <v>0.6698310342957138</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.264345230294537</v>
+        <v>-2.261905500656521</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06268755839432162</v>
+        <v>-0.06146926759443488</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7007785643678729</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8207385435312959</v>
+        <v>0.8248908059732871</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.244012051285575</v>
+        <v>-2.241931198007216</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04219225541586536</v>
+        <v>-0.04100859303664724</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6491695798528703</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9435529594899034</v>
+        <v>0.9479318806853619</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.204788281792323</v>
+        <v>-2.202894736789398</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01473506586389616</v>
+        <v>-0.01342233391673139</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5938999444767246</v>
       </c>
       <c r="E82" t="n">
-        <v>1.095505617422029</v>
+        <v>1.099738154839207</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.14913096566313</v>
+        <v>-2.147319269654513</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01901797189295534</v>
+        <v>-0.0175683002822374</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5367015210260637</v>
       </c>
       <c r="E83" t="n">
-        <v>1.164368953978934</v>
+        <v>1.168628249721174</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.092610300045905</v>
+        <v>-2.091169285540354</v>
       </c>
       <c r="G83" t="n">
-        <v>0.007861552641496511</v>
+        <v>0.009500106546770526</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4783848091750529</v>
       </c>
       <c r="E84" t="n">
-        <v>1.300667991749725</v>
+        <v>1.305005988448029</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.011294111210829</v>
+        <v>-2.010032534885107</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03674480351736413</v>
+        <v>0.03837076526966774</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4197971280546954</v>
       </c>
       <c r="E85" t="n">
-        <v>1.310568572022706</v>
+        <v>1.314882958434191</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.856069067525519</v>
+        <v>-1.855358397892252</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05241258985079118</v>
+        <v>0.05404327366045869</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.361024896017204</v>
       </c>
       <c r="E86" t="n">
-        <v>1.354749714738495</v>
+        <v>1.359237243253323</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.761649956515176</v>
+        <v>-1.761263534820897</v>
       </c>
       <c r="G86" t="n">
-        <v>0.07198551762416523</v>
+        <v>0.07355009263073811</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.302629520962904</v>
       </c>
       <c r="E87" t="n">
-        <v>1.364305584823912</v>
+        <v>1.369279485247222</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571606822857134</v>
+        <v>-1.5715415010636</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06611914835907756</v>
+        <v>0.06771677776719777</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2464375092111511</v>
       </c>
       <c r="E88" t="n">
-        <v>1.357301199734124</v>
+        <v>1.362726843645247</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424632787405683</v>
+        <v>-1.424696535180095</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09477259244323528</v>
+        <v>0.09645679290302703</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1945227194588902</v>
       </c>
       <c r="E89" t="n">
-        <v>1.368760058937192</v>
+        <v>1.374302180263292</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.231144125891114</v>
+        <v>-1.231015056323167</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08850957035957985</v>
+        <v>0.09010562574857875</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1495593646505186</v>
       </c>
       <c r="E90" t="n">
-        <v>1.308887519601157</v>
+        <v>1.314346217913828</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065321211462086</v>
+        <v>-1.06537472811221</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09792220470495797</v>
+        <v>0.09952613018956337</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1150666825997602</v>
       </c>
       <c r="E91" t="n">
-        <v>1.247505495927794</v>
+        <v>1.252797348213607</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8747987889816082</v>
+        <v>-0.874727171111589</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06561546224026135</v>
+        <v>0.06723197987783715</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.09314888151867239</v>
       </c>
       <c r="E92" t="n">
-        <v>1.232613701021168</v>
+        <v>1.237833148427401</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7096172873445108</v>
+        <v>-0.7092820212716737</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04804626080830307</v>
+        <v>0.04976036763139952</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08476957956474382</v>
       </c>
       <c r="E93" t="n">
-        <v>1.212458386172913</v>
+        <v>1.217399232194676</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5341472097210315</v>
+        <v>-0.5339331431205345</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03008198057689832</v>
+        <v>0.03150331984343284</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08891037350078855</v>
       </c>
       <c r="E94" t="n">
-        <v>1.179995815815208</v>
+        <v>1.184873701072118</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.402151540227877</v>
+        <v>-0.4012905517685256</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01014545438650381</v>
+        <v>0.01177771221529262</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1031222380126855</v>
       </c>
       <c r="E95" t="n">
-        <v>1.14784490124352</v>
+        <v>1.152132529329943</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2664821101056069</v>
+        <v>-0.2656069554741637</v>
       </c>
       <c r="G95" t="n">
-        <v>0.004685182054711723</v>
+        <v>0.006138001703672257</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1239059513370498</v>
       </c>
       <c r="E96" t="n">
-        <v>1.116375536951355</v>
+        <v>1.120804826758695</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1582824616882763</v>
+        <v>-0.1571759262460019</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03029739291619606</v>
+        <v>-0.02887447963054024</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1460036860860855</v>
       </c>
       <c r="E97" t="n">
-        <v>1.063098137733569</v>
+        <v>1.067351137399324</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07641615317030621</v>
+        <v>-0.07536628241639866</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06079243937227559</v>
+        <v>-0.05936165599101326</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.163157959236579</v>
       </c>
       <c r="E98" t="n">
-        <v>1.000312089004006</v>
+        <v>1.004028348149397</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0656309741511539</v>
+        <v>-0.06489275918326388</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08582406545832043</v>
+        <v>-0.08451290753027696</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1719876211184792</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9470189495950075</v>
+        <v>0.9503228157306176</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.003471385031868441</v>
+        <v>-0.002632432840215175</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1227348138528216</v>
+        <v>-0.1213119005671657</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1730955249765821</v>
       </c>
       <c r="E100" t="n">
-        <v>0.924674174149023</v>
+        <v>0.9272272331637726</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04479276328457455</v>
+        <v>0.04520673031347663</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1242631864196045</v>
+        <v>-0.1229693427018954</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1701026022615417</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8620644155610455</v>
+        <v>0.8641106404187363</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06996919912977904</v>
+        <v>0.07050908768838518</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1549959097630005</v>
+        <v>-0.1538925223589687</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.165274891799723</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7982646985173647</v>
+        <v>0.7996340951528963</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1137584110843642</v>
+        <v>0.1140779369659882</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1467039770319884</v>
+        <v>-0.1457060489090838</v>
       </c>
     </row>
   </sheetData>
